--- a/documents/DB定義書_※※主義.xlsx
+++ b/documents/DB定義書_※※主義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9269F506-E5FE-4319-B7DC-E2D90D30A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC15EB-A8BA-42D7-A33D-7ADDFB596D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="13845" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -182,52 +182,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ氏</t>
-    <rPh sb="3" eb="4">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_l_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_f_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_pw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,24 +210,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Webアプリ製造</t>
-    <rPh sb="6" eb="8">
-      <t>セイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Web sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冨原　祐</t>
-    <rPh sb="0" eb="2">
-      <t>トミハラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -330,6 +271,143 @@
   </si>
   <si>
     <t>dish_detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材id</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賞味・消費期限</t>
+    <rPh sb="0" eb="2">
+      <t>ショウミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food_id</t>
+  </si>
+  <si>
+    <t>food_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理id</t>
+  </si>
+  <si>
+    <t>食材id</t>
+  </si>
+  <si>
+    <t>dish_id</t>
+  </si>
+  <si>
+    <t>食材名</t>
+  </si>
+  <si>
+    <t>食材ジャンル</t>
+  </si>
+  <si>
+    <t>food_name</t>
+  </si>
+  <si>
+    <t>food_genre</t>
+  </si>
+  <si>
+    <t>神部淳之介</t>
+    <rPh sb="0" eb="5">
+      <t>カンベジュンノスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はらペコ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理名</t>
+  </si>
+  <si>
+    <t>dish_name</t>
+  </si>
+  <si>
+    <t>画像パス</t>
+  </si>
+  <si>
+    <t>img_path</t>
+  </si>
+  <si>
+    <t>料理ジャンル</t>
+  </si>
+  <si>
+    <t>dish_genre</t>
+  </si>
+  <si>
+    <t>カロリー</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>難易度</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>サイトurl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dish_details</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -377,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -413,13 +491,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +533,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,13 +904,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -824,13 +918,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43983</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -867,13 +961,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -882,13 +976,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -896,13 +990,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -911,13 +1005,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -926,13 +1020,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1181,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1200,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1208,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1224,13 +1318,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1240,7 +1334,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1254,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1310,17 +1404,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1334,25 +1428,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_l_name varchar (20)</v>
+        <v>pass varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1396,9 +1492,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1413,9 +1507,6 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -1677,12 +1768,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1690,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA78A4F-D4AA-4F57-96F3-1F892A066211}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1717,13 +1809,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1733,13 +1825,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1749,7 +1841,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1763,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1805,7 +1897,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_user (</v>
+        <v>create table m_dish (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1813,29 +1905,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>dish_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1843,25 +1935,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_l_name varchar (20),</v>
+        <v>dish_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1869,25 +1963,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_f_name varchar (20),</v>
+        <v>img_path varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1895,25 +1991,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <v>dish_genre varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1921,25 +2019,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_type int ,</v>
+        <v>cal int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1947,45 +2045,53 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_mail varchar (100)</v>
+        <v>difficulty int ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>url varchar (200)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2224,7 +2330,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2237,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB39066-CCFE-426F-8A72-217B23D17FBE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2256,7 +2362,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2264,13 +2370,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2280,13 +2386,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2296,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2310,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2352,7 +2458,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_user (</v>
+        <v>create table m_food (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2360,29 +2466,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>food_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2390,25 +2496,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_l_name varchar (20),</v>
+        <v>food_name varchar (40),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2416,43 +2524,35 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_f_name varchar (20),</v>
+        <v>food_genre char (3)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2460,67 +2560,43 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_type int ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_mail varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2771,7 +2847,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2784,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC42B2-C8F9-4732-BA2A-CCDCB34E1305}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2803,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2811,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2827,13 +2903,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2843,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2857,7 +2933,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2899,7 +2975,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_user (</v>
+        <v>create table dish_details (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2907,29 +2983,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>dish_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2937,43 +3013,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_l_name varchar (20),</v>
+        <v>food_id char (5)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2981,25 +3049,15 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_f_name varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -3007,22 +3065,14 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3033,35 +3083,23 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_type int ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_mail varchar (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3318,7 +3356,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3331,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC864607-C7FD-4B74-8177-4BAB136E3C7C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3350,7 +3388,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3358,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3374,13 +3412,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -3390,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3404,7 +3442,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3446,63 +3484,63 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_user (</v>
+        <v>create table stock (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>food_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_l_name varchar (20),</v>
+        <v>regist_id date ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3510,25 +3548,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_f_name varchar (20),</v>
+        <v>deadline date ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3536,25 +3574,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3562,54 +3602,38 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>user_type int ,</v>
+        <v>remarks varchar (200)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>user_mail varchar (100)</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -3625,7 +3649,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3643,26 +3667,21 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>B11&amp;" "&amp;B12&amp;" "&amp;IF(B13&lt;&gt;"","("&amp;B13&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>登録日 賞味・消費期限 (ユーザーid)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -3865,7 +3884,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB定義書_※※主義.xlsx
+++ b/documents/DB定義書_※※主義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC15EB-A8BA-42D7-A33D-7ADDFB596D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D71AA-B9AC-4D7F-AD72-28FBE3EE37A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="13875" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -410,12 +410,19 @@
     <t>dish_details</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>時間あればやる</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +442,22 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -510,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +559,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,19 +1045,21 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -3649,7 +3680,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/documents/DB定義書_※※主義.xlsx
+++ b/documents/DB定義書_※※主義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D71AA-B9AC-4D7F-AD72-28FBE3EE37A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F002429-93CF-4B12-8E98-003AD059A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="13875" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -910,8 +910,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,19 +986,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
@@ -1814,7 +1814,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2082,9 +2082,11 @@
         <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
@@ -2094,7 +2096,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>difficulty int ,</v>
+        <v>difficulty char (5),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2367,6 +2369,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2892,7 +2895,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3400,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC864607-C7FD-4B74-8177-4BAB136E3C7C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/documents/DB定義書_※※主義.xlsx
+++ b/documents/DB定義書_※※主義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F002429-93CF-4B12-8E98-003AD059A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71835CDB-F3DC-409F-BC90-9380F11041B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="79">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -351,9 +351,6 @@
     <t>food_name</t>
   </si>
   <si>
-    <t>food_genre</t>
-  </si>
-  <si>
     <t>神部淳之介</t>
     <rPh sb="0" eb="5">
       <t>カンベジュンノスケ</t>
@@ -415,6 +412,14 @@
     <rPh sb="0" eb="2">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -910,39 +915,39 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -956,19 +961,19 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>1</v>
       </c>
@@ -1000,7 +1005,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1029,7 +1034,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1044,7 +1049,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>5</v>
       </c>
@@ -1058,10 +1063,10 @@
         <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1070,7 +1075,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1079,7 +1084,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1088,7 +1093,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1097,7 +1102,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1106,7 +1111,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1115,7 +1120,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1124,7 +1129,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1133,7 +1138,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1142,7 +1147,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1151,7 +1156,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1160,7 +1165,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1169,7 +1174,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1178,7 +1183,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1187,7 +1192,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1196,7 +1201,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1205,7 +1210,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1214,7 +1219,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1223,7 +1228,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1232,7 +1237,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1241,7 +1246,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1250,7 +1255,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1259,7 +1264,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1268,7 +1273,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1277,7 +1282,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1286,7 +1291,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1310,41 +1315,41 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1379,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1393,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>create table m_user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>user_id varchar (12),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>pass varchar (20)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1498,7 +1503,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1514,7 +1519,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1530,7 +1535,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1545,7 +1550,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1617,7 +1622,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1635,7 +1640,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1653,7 +1658,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1689,7 +1694,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>27</v>
       </c>
@@ -1817,41 +1822,41 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1872,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1886,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1895,7 +1900,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>create table m_dish (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1942,7 +1947,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -1961,15 +1966,15 @@
         <v>dish_id char (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -1989,15 +1994,15 @@
         <v>dish_name varchar (20),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>23</v>
@@ -2017,15 +2022,15 @@
         <v>img_path varchar (20),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
@@ -2045,15 +2050,15 @@
         <v>dish_genre varchar (20),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
@@ -2071,18 +2076,18 @@
         <v>cal int ,</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -2099,15 +2104,15 @@
         <v>difficulty char (5),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
@@ -2127,7 +2132,7 @@
         <v>url varchar (200)</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2163,7 +2168,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2235,7 +2240,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2271,7 +2276,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2289,7 +2294,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2307,7 +2312,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2361,7 +2366,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>27</v>
       </c>
@@ -2377,45 +2382,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB39066-CCFE-426F-8A72-217B23D17FBE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2431,7 +2434,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2448,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2459,7 +2462,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>create table m_food (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -2525,7 +2528,7 @@
         <v>food_id char (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>food_name varchar (40),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2561,14 +2564,12 @@
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -2578,10 +2579,10 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>food_genre char (3)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">judge boolean </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2597,7 +2598,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2613,7 +2614,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2629,7 +2630,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2645,7 +2646,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>27</v>
       </c>
@@ -2887,6 +2888,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2898,41 +2900,41 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2948,7 +2950,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2962,12 +2964,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2976,7 +2978,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>create table dish_details (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -3042,7 +3044,7 @@
         <v>dish_id char (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -3070,7 +3072,7 @@
         <v>food_id char (5)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3086,7 +3088,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3102,7 +3104,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3120,7 +3122,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3136,7 +3138,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3316,7 +3318,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3388,7 +3390,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>27</v>
       </c>
@@ -3407,41 +3409,41 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3457,7 +3459,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3473,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3487,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>create table stock (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -3551,7 +3553,7 @@
         <v>food_id char (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>regist_id date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>deadline date ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>user_id varchar (20),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3657,7 +3659,7 @@
         <v>remarks varchar (200)</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3669,7 +3671,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3687,7 +3689,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>登録日 賞味・消費期限 (ユーザーid)</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3808,7 +3810,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>27</v>
       </c>

--- a/documents/DB定義書_※※主義.xlsx
+++ b/documents/DB定義書_※※主義.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\D-5\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71835CDB-F3DC-409F-BC90-9380F11041B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA8D5C-EDC6-42ED-84FD-4936E269B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="m_user" sheetId="2" r:id="rId2"/>
-    <sheet name="m_dish" sheetId="6" r:id="rId3"/>
-    <sheet name="m_food" sheetId="7" r:id="rId4"/>
-    <sheet name="dish_details" sheetId="8" r:id="rId5"/>
-    <sheet name="stock" sheetId="9" r:id="rId6"/>
+    <sheet name="m_dish" sheetId="6" r:id="rId2"/>
+    <sheet name="m_food" sheetId="7" r:id="rId3"/>
+    <sheet name="dish_details" sheetId="8" r:id="rId4"/>
+    <sheet name="column" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="66">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -174,26 +173,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>m_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Web sample</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -218,15 +197,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -251,13 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>冷蔵庫テーブル</t>
-    <rPh sb="0" eb="3">
-      <t>レイゾウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_food</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,71 +230,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dish_detail</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食材id</t>
-    <rPh sb="0" eb="2">
-      <t>ショクザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>賞味・消費期限</t>
-    <rPh sb="0" eb="2">
-      <t>ショウミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>food_id</t>
-  </si>
-  <si>
-    <t>food_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deadline</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>料理id</t>
@@ -408,18 +312,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間あればやる</t>
+    <t>judge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラムテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木美玲</t>
+    <rPh sb="0" eb="4">
+      <t>スズキミレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
     <rPh sb="0" eb="2">
-      <t>ジカン</t>
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>judge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>boolean</t>
+    <t>content</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,13 +391,19 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -483,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,19 +455,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -563,13 +491,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,9 +843,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -938,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -952,26 +878,30 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43986</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44364</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -994,29 +924,29 @@
       <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,13 +954,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1039,32 +969,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
@@ -1308,12 +1230,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA78A4F-D4AA-4F57-96F3-1F892A066211}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1330,7 +1250,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1338,13 +1258,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1354,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43986</v>
+        <v>44351</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1370,12 +1290,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1384,12 +1306,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44364</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -1426,7 +1350,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_user (</v>
+        <v>create table m_dish (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1434,29 +1358,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (12),</v>
+        <v>dish_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1464,13 +1388,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1478,94 +1402,151 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>pass varchar (20)</v>
+        <v>dish_name varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>img_path varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>dish_genre varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>cal int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>difficulty char (5),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>url varchar (200)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1804,7 +1785,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1815,12 +1796,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA78A4F-D4AA-4F57-96F3-1F892A066211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB39066-CCFE-426F-8A72-217B23D17FBE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1837,7 +1816,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1845,13 +1824,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1861,13 +1840,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43986</v>
+        <v>44351</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1877,12 +1856,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1891,12 +1872,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44364</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -1933,7 +1916,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_dish (</v>
+        <v>create table m_food (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1941,29 +1924,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>dish_id char (5),</v>
+        <v>food_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1971,27 +1954,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>dish_name varchar (20),</v>
+        <v>food_name varchar (40),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1999,137 +1982,97 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>img_path varchar (20),</v>
+        <v xml:space="preserve">judge boolean </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>dish_genre varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>cal int ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>difficulty char (5),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3">
-        <v>200</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>url varchar (200)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2368,7 +2311,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2379,10 +2322,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB39066-CCFE-426F-8A72-217B23D17FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC42B2-C8F9-4732-BA2A-CCDCB34E1305}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2399,7 +2342,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2407,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2423,13 +2366,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43986</v>
+        <v>44351</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2439,12 +2382,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2453,12 +2398,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44364</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2495,7 +2442,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table m_food (</v>
+        <v>create table dish_details (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2503,29 +2450,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>food_id char (5),</v>
+        <v>dish_id char (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2533,57 +2480,51 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>food_name varchar (40),</v>
+        <v>food_id char (5)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">judge boolean </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2599,7 +2540,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2607,7 +2550,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2615,7 +2560,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2631,7 +2578,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2882,23 +2831,20 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEC42B2-C8F9-4732-BA2A-CCDCB34E1305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51396E70-519A-4A59-8E58-CC76624FF0D1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2915,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2923,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2939,13 +2885,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>43986</v>
+        <v>44351</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2955,12 +2901,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2969,12 +2917,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44364</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -3011,7 +2961,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table dish_details (</v>
+        <v>create table column (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3019,29 +2969,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>dish_id char (5),</v>
+        <v>id varchar (3),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3049,35 +2997,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>food_id char (5)</v>
+        <v>title varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>150</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3085,11 +3041,13 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>content varchar (150)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3105,7 +3063,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3113,9 +3073,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3123,7 +3081,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3392,535 +3352,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC864607-C7FD-4B74-8177-4BAB136E3C7C}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43986</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table stock (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>food_id char (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>regist_id date ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>deadline date ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3">
-        <v>200</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>remarks varchar (200)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f>B11&amp;" "&amp;B12&amp;" "&amp;IF(B13&lt;&gt;"","("&amp;B13&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>登録日 賞味・消費期限 (ユーザーid)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
